--- a/data_df01.xlsx
+++ b/data_df01.xlsx
@@ -1982,8 +1982,14 @@
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Socrates</t>
+        </is>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2062,8 +2068,14 @@
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Livy Jay</t>
+        </is>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2142,8 +2154,14 @@
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>American Bullitt</t>
+        </is>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2222,8 +2240,14 @@
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Beefour Bacardi</t>
+        </is>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2302,8 +2326,14 @@
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Inedit Star</t>
+        </is>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2382,8 +2412,14 @@
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Who Do You Love</t>
+        </is>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2462,8 +2498,14 @@
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Jarry Wells</t>
+        </is>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2542,8 +2584,14 @@
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Alpine Challenge</t>
+        </is>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2622,8 +2670,14 @@
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Iban Roque</t>
+        </is>
+      </c>
+      <c r="AK25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
